--- a/medicine/Pharmacie/Nimodipine/Nimodipine.xlsx
+++ b/medicine/Pharmacie/Nimodipine/Nimodipine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La nimodipine est une dihydropyridine antagoniste du calcium. Son indication principale est la prévention de spasmes artériels cérébraux, une complication de l'hémorragie méningée et peut aussi être utilisé en traitement de 1re intention du syndrome de vasoconstriction cérébrale réversible (SVCR).
@@ -512,9 +524,11 @@
           <t>Stéréochimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La nimodipine contient un stéréocentre et se compose donc de deux énantiomères. Pratiquement, c'est le racémique, c'est-à-dire le mélange 1:1 des ( R ) et ( S ) qui est utilisé[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nimodipine contient un stéréocentre et se compose donc de deux énantiomères. Pratiquement, c'est le racémique, c'est-à-dire le mélange 1:1 des ( R ) et ( S ) qui est utilisé :
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Spécialités contenant de la nimodipine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
